--- a/Black_RF_Catch-only.xlsx
+++ b/Black_RF_Catch-only.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212"/>
   </bookViews>
   <sheets>
     <sheet name="Black " sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2283,8 +2283,8 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4047,17 +4047,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="R8:V8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -4071,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M24" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="M18" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6178,7 +6178,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:D24"/>
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Black_RF_Catch-only.xlsx
+++ b/Black_RF_Catch-only.xlsx
@@ -442,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -472,7 +472,6 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,22 +504,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +530,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -864,14 +863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -901,12 +900,12 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,41 +913,41 @@
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="20"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="34" t="s">
+      <c r="Y8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -957,11 +956,11 @@
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1012,7 +1011,7 @@
       <c r="V9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="21"/>
+      <c r="W9" s="20"/>
       <c r="X9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1042,11 +1041,11 @@
       <c r="B10" s="14">
         <v>0.224</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10">
@@ -1089,7 +1088,7 @@
       <c r="V10" s="13">
         <v>227.36</v>
       </c>
-      <c r="W10" s="22"/>
+      <c r="W10" s="21"/>
       <c r="X10" s="12" t="s">
         <v>26</v>
       </c>
@@ -1115,11 +1114,11 @@
       <c r="B11" s="14">
         <v>0.224</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="10">
@@ -1162,7 +1161,7 @@
       <c r="V11" s="13">
         <v>165.78</v>
       </c>
-      <c r="W11" s="22"/>
+      <c r="W11" s="21"/>
       <c r="X11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1188,11 +1187,11 @@
       <c r="B12" s="14">
         <v>0.23799999999999999</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <v>0.126</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="10">
@@ -1235,7 +1234,7 @@
       <c r="V12" s="13">
         <v>97.28</v>
       </c>
-      <c r="W12" s="22"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1261,11 +1260,11 @@
       <c r="B13" s="14">
         <v>0.253</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10">
@@ -1308,7 +1307,7 @@
       <c r="V13" s="13">
         <v>92.19</v>
       </c>
-      <c r="W13" s="22"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1334,11 +1333,11 @@
       <c r="B14" s="14">
         <v>0.26700000000000002</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="10">
@@ -1387,7 +1386,7 @@
       <c r="V14" s="12">
         <v>165.1</v>
       </c>
-      <c r="W14" s="21"/>
+      <c r="W14" s="20"/>
       <c r="X14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1415,17 +1414,17 @@
       <c r="B15" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>0.151</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="10">
         <v>2020</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="31">
         <f>B22</f>
         <v>0.84099999999999997</v>
       </c>
@@ -1451,7 +1450,7 @@
       <c r="O15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="40">
         <f>C22</f>
         <v>0.91700000000000004</v>
       </c>
@@ -1474,14 +1473,14 @@
       <c r="V15" s="12">
         <v>165.1</v>
       </c>
-      <c r="W15" s="21"/>
+      <c r="W15" s="20"/>
       <c r="X15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="Y15" s="10">
         <v>2020</v>
       </c>
-      <c r="Z15" s="43">
+      <c r="Z15" s="32">
         <f>C22</f>
         <v>0.91700000000000004</v>
       </c>
@@ -1505,18 +1504,18 @@
       <c r="B16" s="14">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>0.159</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="10">
         <v>2021</v>
       </c>
-      <c r="G16" s="42">
-        <f t="shared" ref="G16:G24" si="6">B23</f>
+      <c r="G16" s="31">
+        <f t="shared" ref="G16:G25" si="6">B23</f>
         <v>0.83299999999999996</v>
       </c>
       <c r="H16" s="12">
@@ -1545,8 +1544,8 @@
       <c r="O16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="51">
-        <f t="shared" ref="P16:P25" si="8">C23</f>
+      <c r="P16" s="40">
+        <f t="shared" ref="P16:P24" si="8">C23</f>
         <v>0.91300000000000003</v>
       </c>
       <c r="Q16" s="10">
@@ -1571,14 +1570,14 @@
         <f t="shared" si="9"/>
         <v>226.7869998683654</v>
       </c>
-      <c r="W16" s="20"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y16" s="10">
         <v>2021</v>
       </c>
-      <c r="Z16" s="43">
+      <c r="Z16" s="32">
         <f t="shared" ref="Z16:Z24" si="10">C23</f>
         <v>0.91300000000000003</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>0.39361722524788595</v>
       </c>
       <c r="AC16" s="7">
-        <f t="shared" ref="AC16:AD18" si="11">$AA16 * AC$28</f>
+        <f t="shared" ref="AC16:AD17" si="11">$AA16 * AC$28</f>
         <v>0.7870261637361835</v>
       </c>
       <c r="AD16" s="7">
@@ -1605,17 +1604,17 @@
       <c r="B17" s="14">
         <v>0.307</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="10">
         <v>2022</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="31">
         <f t="shared" si="6"/>
         <v>0.82599999999999996</v>
       </c>
@@ -1642,11 +1641,11 @@
         <f t="shared" si="7"/>
         <v>12.305305443370727</v>
       </c>
-      <c r="N17" s="53"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="40">
         <f t="shared" si="8"/>
         <v>0.90900000000000003</v>
       </c>
@@ -1672,14 +1671,14 @@
         <f t="shared" si="9"/>
         <v>222.15110470271341</v>
       </c>
-      <c r="W17" s="20"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y17" s="10">
         <v>2022</v>
       </c>
-      <c r="Z17" s="43">
+      <c r="Z17" s="32">
         <f t="shared" si="10"/>
         <v>0.90900000000000003</v>
       </c>
@@ -1706,17 +1705,17 @@
       <c r="B18" s="14">
         <v>0.32</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="10">
         <v>2023</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="31">
         <f t="shared" si="6"/>
         <v>0.81799999999999995</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="O18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="40">
         <f t="shared" si="8"/>
         <v>0.90400000000000003</v>
       </c>
@@ -1772,14 +1771,14 @@
         <f t="shared" si="9"/>
         <v>218.15324858462793</v>
       </c>
-      <c r="W18" s="20"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y18" s="10">
         <v>2023</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="Z18" s="32">
         <f t="shared" si="10"/>
         <v>0.90400000000000003</v>
       </c>
@@ -1806,17 +1805,17 @@
       <c r="B19" s="14">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>0.182</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="10">
         <v>2024</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="31">
         <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
@@ -1846,7 +1845,7 @@
       <c r="O19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="40">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
@@ -1872,14 +1871,14 @@
         <f t="shared" si="9"/>
         <v>214.51877462348989</v>
       </c>
-      <c r="W19" s="20"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="10">
         <v>2024</v>
       </c>
-      <c r="Z19" s="43">
+      <c r="Z19" s="32">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
@@ -1903,14 +1902,14 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="10">
         <v>2025</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="31">
         <f t="shared" si="6"/>
         <v>0.80300000000000005</v>
       </c>
@@ -1940,7 +1939,7 @@
       <c r="O20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="40">
         <f t="shared" si="8"/>
         <v>0.89600000000000002</v>
       </c>
@@ -1966,14 +1965,14 @@
         <f t="shared" si="9"/>
         <v>211.64433695111967</v>
       </c>
-      <c r="W20" s="20"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y20" s="10">
         <v>2025</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="32">
         <f t="shared" si="10"/>
         <v>0.89600000000000002</v>
       </c>
@@ -1994,19 +1993,19 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="10">
         <v>2026</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="31">
         <f t="shared" si="6"/>
         <v>0.79500000000000004</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="O21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="40">
         <f t="shared" si="8"/>
         <v>0.89200000000000002</v>
       </c>
@@ -2062,14 +2061,14 @@
         <f t="shared" si="9"/>
         <v>209.17307732721176</v>
       </c>
-      <c r="W21" s="20"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y21" s="10">
         <v>2026</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="32">
         <f t="shared" si="10"/>
         <v>0.89200000000000002</v>
       </c>
@@ -2090,23 +2089,23 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44">
+      <c r="A22" s="33">
         <v>2021</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="34">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="34">
         <v>0.91700000000000004</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="10">
         <v>2027</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="31">
         <f t="shared" si="6"/>
         <v>0.78800000000000003</v>
       </c>
@@ -2136,7 +2135,7 @@
       <c r="O22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="40">
         <f t="shared" si="8"/>
         <v>0.88700000000000001</v>
       </c>
@@ -2162,14 +2161,14 @@
         <f t="shared" si="9"/>
         <v>207.01627048543784</v>
       </c>
-      <c r="W22" s="20"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y22" s="10">
         <v>2027</v>
       </c>
-      <c r="Z22" s="43">
+      <c r="Z22" s="32">
         <f t="shared" si="10"/>
         <v>0.88700000000000001</v>
       </c>
@@ -2190,13 +2189,13 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
+      <c r="A23" s="35">
         <v>2022</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="36">
         <v>0.83299999999999996</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="36">
         <v>0.91300000000000003</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -2205,7 +2204,10 @@
       <c r="F23" s="10">
         <v>2028</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="31">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
       <c r="H23" s="12">
         <v>450.19900000000001</v>
       </c>
@@ -2232,7 +2234,10 @@
       <c r="O23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="51"/>
+      <c r="P23" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88300000000000001</v>
+      </c>
       <c r="Q23" s="10">
         <v>314.02999999999997</v>
       </c>
@@ -2255,14 +2260,17 @@
         <f t="shared" si="9"/>
         <v>204.87055430195494</v>
       </c>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y23" s="10">
         <v>2028</v>
       </c>
-      <c r="Z23" s="43"/>
+      <c r="Z23" s="32">
+        <f t="shared" si="10"/>
+        <v>0.88300000000000001</v>
+      </c>
       <c r="AA23" s="7">
         <v>285.64999999999998</v>
       </c>
@@ -2280,13 +2288,13 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46">
+      <c r="A24" s="35">
         <v>2023</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="36">
         <v>0.82599999999999996</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="36">
         <v>0.90900000000000003</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2295,82 +2303,97 @@
       <c r="F24" s="10">
         <v>2029</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="31">
+        <f t="shared" si="6"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H24" s="12">
+        <v>446.28199999999998</v>
+      </c>
       <c r="I24" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.7716570680939929E-2</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>47.286782840026454</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>59.793180589292596</v>
       </c>
       <c r="L24" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>327.589713603409</v>
       </c>
       <c r="M24" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11.584606396590994</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="10"/>
+      <c r="P24" s="40">
+        <f t="shared" si="8"/>
+        <v>0.879</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>311.40199999999999</v>
+      </c>
       <c r="R24" s="10">
         <v>2029</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.14031166733175726</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>41.959198596332293</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>66.146420727841914</v>
       </c>
       <c r="V24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="20"/>
+        <v>203.156069008494</v>
+      </c>
+      <c r="W24" s="19"/>
       <c r="X24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y24" s="10">
         <v>2029</v>
       </c>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="7"/>
+      <c r="Z24" s="32">
+        <f t="shared" si="10"/>
+        <v>0.879</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>285.07900000000001</v>
+      </c>
       <c r="AB24" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.38354293189745287</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.76688290795526315</v>
       </c>
       <c r="AD24" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>283.92857416014732</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46">
+      <c r="A25" s="35">
         <v>2024</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="36">
         <v>0.81799999999999995</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="36">
         <v>0.90400000000000003</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2379,139 +2402,145 @@
       <c r="F25" s="10">
         <v>2030</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="12">
+        <v>443.048</v>
+      </c>
       <c r="I25" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.7515721465461464E-2</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>46.944117315302968</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>59.35988696323156</v>
       </c>
       <c r="L25" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>325.21582190759017</v>
       </c>
       <c r="M25" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11.500658092409838</v>
       </c>
       <c r="O25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="10"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="10">
+        <v>309.00099999999998</v>
+      </c>
       <c r="R25" s="10">
         <v>2030</v>
       </c>
       <c r="S25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.13922982356304817</v>
       </c>
       <c r="T25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>41.635680970145579</v>
       </c>
       <c r="U25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>65.636412583489758</v>
       </c>
       <c r="V25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="20"/>
+        <v>201.58967662280156</v>
+      </c>
+      <c r="W25" s="19"/>
       <c r="X25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y25" s="10">
         <v>2030</v>
       </c>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="7"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="7">
+        <v>284.47800000000001</v>
+      </c>
       <c r="AB25" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.38273435146160745</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.76526617495254767</v>
       </c>
       <c r="AD25" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>283.32999947358587</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48">
+      <c r="A26" s="37">
         <v>2025</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="36">
         <v>0.81</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="36">
         <v>0.9</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48">
+      <c r="A27" s="37">
         <v>2026</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="36">
         <v>0.80300000000000005</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="36">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49">
+      <c r="A28" s="38">
         <v>2027</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="38">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="38">
         <v>0.89200000000000002</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
         <f t="shared" ref="I28:K28" si="15">I15/(SUM($I$15:$K$15))</f>
         <v>2.5877295335815256E-4</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <f t="shared" si="15"/>
         <v>0.44148825593110086</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="16">
         <f t="shared" si="15"/>
         <v>0.55825297111554095</v>
       </c>
@@ -2551,13 +2580,13 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49">
+      <c r="A29" s="38">
         <v>2028</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="38">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="38">
         <v>0.88700000000000001</v>
       </c>
       <c r="I29" s="1">
@@ -2576,113 +2605,128 @@
         <f>L28*0.76</f>
         <v>0.73404195912765702</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <f>M28*0.76</f>
         <v>2.5958040872343036E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>2029</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0.88300000000000001</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0.879</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="F36:M36"/>
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F33:M33"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F30:M30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -2694,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3311,6 +3355,180 @@
         <v>11.774956710307887</v>
       </c>
     </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>2.7959837958932861E-2</v>
+      </c>
+      <c r="F44">
+        <v>47.701817119662167</v>
+      </c>
+      <c r="G44">
+        <v>60.317983042378899</v>
+      </c>
+      <c r="H44">
+        <v>330.46495595731204</v>
+      </c>
+      <c r="I44">
+        <v>11.686284042687962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2028</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2.7959837958932861E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2028</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>47.701817119662167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2028</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>60.317983042378899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2028</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>330.46495595731204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2028</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>11.686284042687962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>2.7716570680939929E-2</v>
+      </c>
+      <c r="F51">
+        <v>47.286782840026454</v>
+      </c>
+      <c r="G51">
+        <v>59.793180589292596</v>
+      </c>
+      <c r="H51">
+        <v>327.589713603409</v>
+      </c>
+      <c r="I51">
+        <v>11.584606396590994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2029</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2.7716570680939929E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2029</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>47.286782840026454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2029</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>59.793180589292596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2029</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>327.589713603409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2029</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>11.584606396590994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3318,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3703,7 @@
         <v>288.74406269512991</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2024</v>
       </c>
@@ -3508,7 +3726,7 @@
         <v>287.44432897472609</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -3522,7 +3740,7 @@
         <v>0.77637886053360827</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2024</v>
       </c>
@@ -3536,7 +3754,7 @@
         <v>287.44432897472609</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2025</v>
       </c>
@@ -3559,7 +3777,7 @@
         <v>286.65353313258009</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2025</v>
       </c>
@@ -3573,7 +3791,7 @@
         <v>0.77424294372136859</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2025</v>
       </c>
@@ -3587,7 +3805,7 @@
         <v>286.65353313258009</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2026</v>
       </c>
@@ -3610,7 +3828,7 @@
         <v>285.9862368929858</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -3624,7 +3842,7 @@
         <v>0.77244059578156932</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2026</v>
       </c>
@@ -3638,7 +3856,7 @@
         <v>285.9862368929858</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -3661,7 +3879,7 @@
         <v>285.39065010003452</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2027</v>
       </c>
@@ -3675,7 +3893,7 @@
         <v>0.77083193299350983</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2027</v>
       </c>
@@ -3687,6 +3905,120 @@
       </c>
       <c r="D31" s="7">
         <v>285.39065010003452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>285.64999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.38431115058109294</v>
+      </c>
+      <c r="G32">
+        <v>0.76841893881142032</v>
+      </c>
+      <c r="H32">
+        <v>284.49726991060749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>285.64999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2028</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.38431115058109294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2028</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0.76841893881142032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2028</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>284.49726991060749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0.38354293189745287</v>
+      </c>
+      <c r="F37">
+        <v>0.76688290795526315</v>
+      </c>
+      <c r="G37">
+        <v>283.92857416014732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2029</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.38354293189745287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2029</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.76688290795526315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2029</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>283.92857416014732</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +4063,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="52"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12">
@@ -3773,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D39"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4187,6 +4519,146 @@
         <v>207.01627048543784</v>
       </c>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="7">
+        <v>0.14149579287285161</v>
+      </c>
+      <c r="F41" s="7">
+        <v>42.313302853566221</v>
+      </c>
+      <c r="G41" s="7">
+        <v>66.704647051605946</v>
+      </c>
+      <c r="H41" s="7">
+        <v>204.87055430195494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2028</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.14149579287285161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>42.313302853566221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2028</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7">
+        <v>66.704647051605946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2028</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7">
+        <v>204.87055430195494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0.14031166733175726</v>
+      </c>
+      <c r="F47">
+        <v>41.959198596332293</v>
+      </c>
+      <c r="G47">
+        <v>66.146420727841914</v>
+      </c>
+      <c r="H47">
+        <v>203.156069008494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2029</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.14031166733175726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2029</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>41.959198596332293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2029</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>66.146420727841914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2029</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>203.156069008494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Black_RF_Catch-only.xlsx
+++ b/Black_RF_Catch-only.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Black " sheetId="1" r:id="rId1"/>
-    <sheet name="OR_Catches" sheetId="9" r:id="rId2"/>
-    <sheet name="WA_Catches" sheetId="7" r:id="rId3"/>
-    <sheet name="Sigma analysis" sheetId="8" r:id="rId4"/>
-    <sheet name="CA Catches" sheetId="6" r:id="rId5"/>
+    <sheet name="Base_Runs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sigma analysis" sheetId="8" r:id="rId2"/>
+    <sheet name="CA Catches" sheetId="6" r:id="rId3"/>
+    <sheet name="WA_Catches" sheetId="7" r:id="rId4"/>
+    <sheet name="OR_Catches" sheetId="9" r:id="rId5"/>
+    <sheet name="Mid-High" sheetId="12" r:id="rId6"/>
+    <sheet name="Mid-Low" sheetId="11" r:id="rId7"/>
+    <sheet name="OR_Decision_Table" sheetId="13" r:id="rId8"/>
+    <sheet name="WA_Decision_Table" sheetId="14" r:id="rId9"/>
+    <sheet name="CA_Decision_Table" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
   <si>
     <t>BLACK ROCKFISH</t>
   </si>
@@ -149,16 +154,410 @@
   <si>
     <t>baseline category 1 and 2 sigmas of 0.5 and 1.0, i.e.: Sigma (years since assessment) = (baseline sigma) * (1.0 + (years since assessment – 1)*0.075)</t>
   </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>State of nature</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Tag Q estimated</t>
+  </si>
+  <si>
+    <t>Tag Q = 0.25</t>
+  </si>
+  <si>
+    <t>Tag Q = 0.125</t>
+  </si>
+  <si>
+    <t>Relative probability of states of nature</t>
+  </si>
+  <si>
+    <t>Management decision</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Catch (mt)</t>
+  </si>
+  <si>
+    <t>Spawning output</t>
+  </si>
+  <si>
+    <t>Stock status</t>
+  </si>
+  <si>
+    <t>2014 Catch</t>
+  </si>
+  <si>
+    <t>State harvest guideline: 440.8 rec/139.2 comm.</t>
+  </si>
+  <si>
+    <t>High catch</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.133 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.163 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.193 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.175</t>
+    </r>
+  </si>
+  <si>
+    <t>Low catch</t>
+  </si>
+  <si>
+    <t>Base catch</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">female </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.15 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">male </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">female </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.18; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">female </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 0.21 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.16</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,8 +610,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +670,14 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -438,11 +877,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -530,6 +1248,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +1268,112 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,14 +1692,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -900,11 +1729,11 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="22"/>
       <c r="E7" s="4"/>
     </row>
@@ -921,33 +1750,33 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="50"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
       <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="50"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="53"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1515,7 +2344,7 @@
         <v>2021</v>
       </c>
       <c r="G16" s="31">
-        <f t="shared" ref="G16:G25" si="6">B23</f>
+        <f t="shared" ref="G16:G24" si="6">B23</f>
         <v>0.83299999999999996</v>
       </c>
       <c r="H16" s="12">
@@ -2624,16 +3453,16 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
@@ -2655,66 +3484,67 @@
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
     </row>
     <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="F32:M32"/>
@@ -2736,1297 +3566,472 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D56"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E1">
-        <v>2.9749221878650083E-2</v>
-      </c>
-      <c r="F1">
-        <v>50.754655430835015</v>
-      </c>
-      <c r="G1">
-        <v>64.178235347286332</v>
-      </c>
-      <c r="H1">
-        <v>351.61417288369813</v>
-      </c>
-      <c r="I1">
-        <v>12.43418711630191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2.9749221878650083E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>50.754655430835015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>64.178235347286332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>351.61417288369813</v>
+    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>12.43418711630191</v>
-      </c>
+      <c r="A6" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>2.9440868027428506E-2</v>
-      </c>
-      <c r="F7">
-        <v>50.228578025067513</v>
-      </c>
-      <c r="G7">
-        <v>63.51302110690505</v>
-      </c>
-      <c r="H7">
-        <v>347.96965455662928</v>
-      </c>
-      <c r="I7">
-        <v>12.305305443370727</v>
-      </c>
+      <c r="A7" s="86"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2.9440868027428506E-2</v>
-      </c>
+      <c r="A8" s="86"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>50.228578025067513</v>
-      </c>
+      <c r="A9" s="86"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>63.51302110690505</v>
-      </c>
+      <c r="A10" s="86"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>347.96965455662928</v>
-      </c>
+      <c r="A11" s="86"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>12.305305443370727</v>
-      </c>
+      <c r="A12" s="86"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>2.9189589138799609E-2</v>
-      </c>
-      <c r="F13">
-        <v>49.799875269028178</v>
-      </c>
-      <c r="G13">
-        <v>62.970935141833017</v>
-      </c>
-      <c r="H13">
-        <v>344.99972078999878</v>
-      </c>
-      <c r="I13">
-        <v>12.200279210001227</v>
-      </c>
+      <c r="A13" s="86"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.9189589138799609E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>49.799875269028178</v>
-      </c>
+      <c r="A14" s="86"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>62.970935141833017</v>
-      </c>
+      <c r="A16" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2023</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>344.99972078999878</v>
-      </c>
+      <c r="A17" s="86"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2023</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>12.200279210001227</v>
-      </c>
+      <c r="A18" s="86"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>2.8914523840298027E-2</v>
-      </c>
-      <c r="F19">
-        <v>49.330590912503659</v>
-      </c>
-      <c r="G19">
-        <v>62.377534563656042</v>
-      </c>
-      <c r="H19">
-        <v>341.74864895302244</v>
-      </c>
-      <c r="I19">
-        <v>12.085311046977621</v>
-      </c>
+      <c r="A19" s="86"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="90"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2024</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2.8914523840298027E-2</v>
-      </c>
+      <c r="A20" s="86"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="90"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2024</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>49.330590912503659</v>
-      </c>
+      <c r="A21" s="86"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2024</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>62.377534563656042</v>
-      </c>
+      <c r="A22" s="86"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="90"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>341.74864895302244</v>
-      </c>
+      <c r="A23" s="86"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2024</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>12.085311046977621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>2.8649209106678977E-2</v>
-      </c>
-      <c r="F25">
-        <v>48.877941833462614</v>
-      </c>
-      <c r="G25">
-        <v>61.805168957430695</v>
-      </c>
-      <c r="H25">
-        <v>338.61282170362904</v>
-      </c>
-      <c r="I25">
-        <v>11.97441829637097</v>
-      </c>
+      <c r="A24" s="86"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2025</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2.8649209106678977E-2</v>
-      </c>
+      <c r="A26" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="90"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2025</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>48.877941833462614</v>
-      </c>
+      <c r="A27" s="86"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="90"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2025</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>61.805168957430695</v>
-      </c>
+      <c r="A28" s="86"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2025</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>338.61282170362904</v>
-      </c>
+      <c r="A29" s="86"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2025</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>11.97441829637097</v>
-      </c>
+      <c r="A30" s="86"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="90"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>2.8426312435574398E-2</v>
-      </c>
-      <c r="F31">
-        <v>48.497661509333803</v>
-      </c>
-      <c r="G31">
-        <v>61.324312178230613</v>
-      </c>
-      <c r="H31">
-        <v>335.97834511231986</v>
-      </c>
-      <c r="I31">
-        <v>11.88125488768013</v>
-      </c>
+      <c r="A31" s="86"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="90"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2026</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>2.8426312435574398E-2</v>
-      </c>
+      <c r="A32" s="86"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="90"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2026</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>48.497661509333803</v>
-      </c>
+      <c r="A33" s="86"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="90"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2026</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>61.324312178230613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2026</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>335.97834511231986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2026</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>11.88125488768013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>2.8171990377014008E-2</v>
-      </c>
-      <c r="F37">
-        <v>48.063766851404715</v>
-      </c>
-      <c r="G37">
-        <v>60.775661158218263</v>
-      </c>
-      <c r="H37">
-        <v>332.97244328969214</v>
-      </c>
-      <c r="I37">
-        <v>11.774956710307887</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2027</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2.8171990377014008E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2027</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>48.063766851404715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2027</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>60.775661158218263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2027</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>332.97244328969214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2027</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>11.774956710307887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <v>2.7959837958932861E-2</v>
-      </c>
-      <c r="F44">
-        <v>47.701817119662167</v>
-      </c>
-      <c r="G44">
-        <v>60.317983042378899</v>
-      </c>
-      <c r="H44">
-        <v>330.46495595731204</v>
-      </c>
-      <c r="I44">
-        <v>11.686284042687962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2028</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>2.7959837958932861E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2028</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>47.701817119662167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2028</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>60.317983042378899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2028</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>330.46495595731204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2028</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>11.686284042687962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E51">
-        <v>2.7716570680939929E-2</v>
-      </c>
-      <c r="F51">
-        <v>47.286782840026454</v>
-      </c>
-      <c r="G51">
-        <v>59.793180589292596</v>
-      </c>
-      <c r="H51">
-        <v>327.589713603409</v>
-      </c>
-      <c r="I51">
-        <v>11.584606396590994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2029</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>2.7716570680939929E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2029</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>47.286782840026454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2029</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>59.793180589292596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2029</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>327.589713603409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2029</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>11.584606396590994</v>
-      </c>
+      <c r="A34" s="86"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="90"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="88"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="91"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="7">
-        <v>0.39361722524788595</v>
-      </c>
-      <c r="F1" s="7">
-        <v>0.7870261637361835</v>
-      </c>
-      <c r="G1" s="7">
-        <v>291.38635661101597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.39361722524788595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.7870261637361835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>291.38635661101597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>0.39166371644115133</v>
-      </c>
-      <c r="F7">
-        <v>0.78312017984276794</v>
-      </c>
-      <c r="G7">
-        <v>289.94021610371612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.39166371644115133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.78312017984276794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>289.94021610371612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>0.39004790096120068</v>
-      </c>
-      <c r="F12">
-        <v>0.77988940390888895</v>
-      </c>
-      <c r="G12">
-        <v>288.74406269512991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.39004790096120068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0.77988940390888895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>288.74406269512991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.38829216474027184</v>
-      </c>
-      <c r="E17">
-        <v>0.38829216474027184</v>
-      </c>
-      <c r="F17">
-        <v>0.77637886053360827</v>
-      </c>
-      <c r="G17">
-        <v>287.44432897472609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0.77637886053360827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2024</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>287.44432897472609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2025</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0.38722392369857261</v>
-      </c>
-      <c r="E21">
-        <v>0.38722392369857261</v>
-      </c>
-      <c r="F21">
-        <v>0.77424294372136859</v>
-      </c>
-      <c r="G21">
-        <v>286.65353313258009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2025</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>0.77424294372136859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2025</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>286.65353313258009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2026</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.3863225112326551</v>
-      </c>
-      <c r="E25">
-        <v>0.3863225112326551</v>
-      </c>
-      <c r="F25">
-        <v>0.77244059578156932</v>
-      </c>
-      <c r="G25">
-        <v>285.9862368929858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2026</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0.77244059578156932</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2026</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>285.9862368929858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2027</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.38551796697203028</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.38551796697203028</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.77083193299350983</v>
-      </c>
-      <c r="G29" s="7">
-        <v>285.39065010003452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2027</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.77083193299350983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2027</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7">
-        <v>285.39065010003452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>285.64999999999998</v>
-      </c>
-      <c r="F32">
-        <v>0.38431115058109294</v>
-      </c>
-      <c r="G32">
-        <v>0.76841893881142032</v>
-      </c>
-      <c r="H32">
-        <v>284.49726991060749</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>285.64999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2028</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0.38431115058109294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2028</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>0.76841893881142032</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2028</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>284.49726991060749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>0.38354293189745287</v>
-      </c>
-      <c r="F37">
-        <v>0.76688290795526315</v>
-      </c>
-      <c r="G37">
-        <v>283.92857416014732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2029</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0.38354293189745287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2029</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>0.76688290795526315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2029</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>283.92857416014732</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4103,43 +4108,1171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A27:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D51"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="7">
+        <v>0.20656727623214408</v>
+      </c>
+      <c r="F27" s="7">
+        <v>61.772463628662472</v>
+      </c>
+      <c r="G27" s="7">
+        <v>97.380967827492896</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299.08700126761244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2021</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0.15663259402487714</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.20656727623214408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>61.772463628662472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>97.380967827492896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>299.08700126761244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.1974137334744076</v>
+      </c>
+      <c r="F32">
+        <v>59.03516226423806</v>
+      </c>
+      <c r="G32">
+        <v>93.065759392460009</v>
+      </c>
+      <c r="H32">
+        <v>285.83366460982751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.1974137334744076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2022</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>59.03516226423806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2022</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>93.065759392460009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2022</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>285.83366460982751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="7">
+        <v>0.18961959207035517</v>
+      </c>
+      <c r="F37" s="7">
+        <v>56.704380132718811</v>
+      </c>
+      <c r="G37" s="7">
+        <v>89.391406672341944</v>
+      </c>
+      <c r="H37" s="7">
+        <v>274.54859360286883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.18961959207035517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>56.704380132718811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>89.391406672341944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>274.54859360286883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0.18287575380035559</v>
+      </c>
+      <c r="F42">
+        <v>54.687683626622821</v>
+      </c>
+      <c r="G42">
+        <v>86.212193054466624</v>
+      </c>
+      <c r="H42">
+        <v>264.78424756511021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.18287575380035559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>54.687683626622821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>86.212193054466624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>264.78424756511021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0.17742327922928156</v>
+      </c>
+      <c r="F47">
+        <v>53.057160180356526</v>
+      </c>
+      <c r="G47">
+        <v>83.64176050352728</v>
+      </c>
+      <c r="H47">
+        <v>256.88965603688689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2025</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.17742327922928156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2025</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>53.057160180356526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>83.64176050352728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2025</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>256.88965603688689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="7">
+        <v>0.17284853546264123</v>
+      </c>
+      <c r="F52" s="7">
+        <v>51.689115841050537</v>
+      </c>
+      <c r="G52" s="7">
+        <v>81.485112153003584</v>
+      </c>
+      <c r="H52" s="7">
+        <v>250.26592347048322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2026</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.17284853546264123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2026</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7">
+        <v>51.689115841050537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2026</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7">
+        <v>81.485112153003584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2026</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>250.26592347048322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0.16898210423428106</v>
+      </c>
+      <c r="F57">
+        <v>50.532887290318278</v>
+      </c>
+      <c r="G57">
+        <v>79.662380005279374</v>
+      </c>
+      <c r="H57">
+        <v>244.66775060016803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2027</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.16898210423428106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2027</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>50.532887290318278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2027</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>79.662380005279374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2027</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>244.66775060016803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="7">
+        <v>0.16549416062179581</v>
+      </c>
+      <c r="F62" s="7">
+        <v>49.489842748747549</v>
+      </c>
+      <c r="G62" s="7">
+        <v>78.018076362867887</v>
+      </c>
+      <c r="H62" s="7">
+        <v>239.61758672776273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2028</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.16549416062179581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2028</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7">
+        <v>49.489842748747549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2028</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <v>78.018076362867887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2028</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7">
+        <v>239.61758672776273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>0.16265685524421933</v>
+      </c>
+      <c r="F67">
+        <v>48.641366908640215</v>
+      </c>
+      <c r="G67">
+        <v>76.680499817684421</v>
+      </c>
+      <c r="H67">
+        <v>235.50947641843115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2029</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.16265685524421933</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2029</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>48.641366908640215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2029</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>76.680499817684421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2029</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>235.50947641843115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="7">
+        <v>0.59870874212021863</v>
+      </c>
+      <c r="F1" s="7">
+        <v>1.1971006711137888</v>
+      </c>
+      <c r="G1" s="7">
+        <v>443.21119058676601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.59870874212021863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1971006711137888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>443.21119058676601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.26065619574157517</v>
+      </c>
+      <c r="F7">
+        <v>0.52117446247269239</v>
+      </c>
+      <c r="G7">
+        <v>192.95816934178575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.26065619574157517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.52117446247269239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>192.95816934178575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.2675028943073276</v>
+      </c>
+      <c r="F12">
+        <v>0.53486423660051075</v>
+      </c>
+      <c r="G12">
+        <v>198.02663286909217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.2675028943073276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.53486423660051075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>198.02663286909217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.27347643363370622</v>
+      </c>
+      <c r="E17">
+        <v>0.27347643363370622</v>
+      </c>
+      <c r="F17">
+        <v>0.54680815429112062</v>
+      </c>
+      <c r="G17">
+        <v>202.44871541207519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.54680815429112062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>202.44871541207519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2025</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.27913380590114362</v>
+      </c>
+      <c r="E21">
+        <v>0.27913380590114362</v>
+      </c>
+      <c r="F21">
+        <v>0.55811990516702481</v>
+      </c>
+      <c r="G21">
+        <v>206.63674628893185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0.55811990516702481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2025</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>206.63674628893185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.28280941613530275</v>
+      </c>
+      <c r="E25">
+        <v>0.28280941613530275</v>
+      </c>
+      <c r="F25">
+        <v>0.56546918064692253</v>
+      </c>
+      <c r="G25">
+        <v>209.35772140321777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2026</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0.56546918064692253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2026</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>209.35772140321777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2027</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.28545042012126698</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.28545042012126698</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.5707497911033792</v>
+      </c>
+      <c r="G29" s="7">
+        <v>211.31279978877538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2027</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.5707497911033792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2027</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>211.31279978877538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.2874321821545453</v>
+      </c>
+      <c r="F32">
+        <v>0.57471226649938545</v>
+      </c>
+      <c r="G32">
+        <v>212.77985555134609</v>
+      </c>
+      <c r="H32">
+        <v>284.49726991060749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>285.64999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2028</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.2874321821545453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2028</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0.57471226649938545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2028</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>212.77985555134609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0.28945565133176904</v>
+      </c>
+      <c r="F37">
+        <v>0.57875813411350197</v>
+      </c>
+      <c r="G37">
+        <v>214.27778621455474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2029</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.28945565133176904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2029</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.57875813411350197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2029</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>214.27778621455474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>6.1160573489473978E-2</v>
+      </c>
+      <c r="F1">
+        <v>104.34504290810619</v>
+      </c>
+      <c r="G1">
+        <v>131.9421965184043</v>
+      </c>
+      <c r="H1">
+        <v>722.87351071952969</v>
       </c>
       <c r="I1">
-        <v>0.15343076902677349</v>
-      </c>
-      <c r="J1">
-        <v>45.882371942459841</v>
-      </c>
-      <c r="K1">
-        <v>72.331092585799937</v>
-      </c>
-      <c r="L1">
-        <v>222.15110470271341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.563089280470336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -4147,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>46.839854762819179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.1160573489473978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -4164,10 +5297,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>73.840512774790525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104.34504290810619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -4175,88 +5308,243 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>131.9421965184043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>226.7869998683654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="D7">
-        <v>0.15343076902677349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>722.87351071952969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>25.563089280470336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5.8355143445691315E-2</v>
+      </c>
+      <c r="F7">
+        <v>99.558745108845486</v>
+      </c>
+      <c r="G7">
+        <v>125.89001974770883</v>
+      </c>
+      <c r="H7">
+        <v>689.71536734181518</v>
+      </c>
+      <c r="I7">
+        <v>24.390512658184861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <v>45.882371942459841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.8355143445691315E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9">
-        <v>72.331092585799937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>99.558745108845486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10">
-        <v>222.15110470271341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="D13">
-        <v>0.15066961175286708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125.89001974770883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>689.71536734181518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>24.390512658184861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>5.6078852336935388E-2</v>
+      </c>
+      <c r="F13">
+        <v>95.675202495312661</v>
+      </c>
+      <c r="G13">
+        <v>120.97935865235038</v>
+      </c>
+      <c r="H13">
+        <v>662.81126145586836</v>
+      </c>
+      <c r="I13">
+        <v>23.439098544131742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2023</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
-        <v>45.056667647052862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.6078852336935388E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="D15">
-        <v>71.02941415656629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95.675202495312661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2023</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="D16">
-        <v>218.15324858462793</v>
+        <v>120.97935865235038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>662.81126145586836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>23.439098544131742</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="7">
-        <v>0.14815942781472533</v>
-      </c>
-      <c r="E19" s="7">
-        <v>44.306015129149422</v>
-      </c>
-      <c r="F19" s="7">
-        <v>69.846050819545965</v>
-      </c>
-      <c r="G19" s="7">
-        <v>214.51877462348989</v>
+      <c r="E19">
+        <v>5.4166934248344019E-2</v>
+      </c>
+      <c r="F19">
+        <v>92.413310665191318</v>
+      </c>
+      <c r="G19">
+        <v>116.85476240056033</v>
+      </c>
+      <c r="H19">
+        <v>640.21377974412337</v>
+      </c>
+      <c r="I19">
+        <v>22.639980255876662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>5.4166934248344019E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4267,10 +5555,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.14815942781472533</v>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>92.413310665191318</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,8 +5571,8 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
-        <v>44.306015129149422</v>
+      <c r="D22">
+        <v>116.85476240056033</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4295,10 +5583,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
-        <v>69.846050819545965</v>
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>640.21377974412337</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,10 +5597,27 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7">
-        <v>214.51877462348989</v>
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>22.639980255876662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5.2632679758801662E-2</v>
+      </c>
+      <c r="F25">
+        <v>89.79574445530605</v>
+      </c>
+      <c r="G25">
+        <v>113.54490286493512</v>
+      </c>
+      <c r="H25">
+        <v>622.08000718583378</v>
+      </c>
+      <c r="I25">
+        <v>21.998712814166296</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4326,19 +5631,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.14617417015336245</v>
-      </c>
-      <c r="F26">
-        <v>0.14617417015336245</v>
-      </c>
-      <c r="G26">
-        <v>43.712338052523585</v>
-      </c>
-      <c r="H26">
-        <v>68.910150826203363</v>
-      </c>
-      <c r="I26">
-        <v>211.64433695111967</v>
+        <v>5.2632679758801662E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,10 +5642,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>43.712338052523585</v>
+        <v>89.79574445530605</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4363,10 +5656,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>68.910150826203363</v>
+        <v>113.54490286493512</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,33 +5673,38 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>211.64433695111967</v>
+        <v>622.08000718583378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2025</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>21.998712814166296</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2026</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0.14446737123796466</v>
+      <c r="E31">
+        <v>5.1461369862721318E-2</v>
       </c>
       <c r="F31">
-        <v>0.14446737123796466</v>
+        <v>87.797392013659518</v>
       </c>
       <c r="G31">
-        <v>43.201932068352292</v>
+        <v>111.01802661647774</v>
       </c>
       <c r="H31">
-        <v>68.105523233197971</v>
+        <v>608.23597583668607</v>
       </c>
       <c r="I31">
-        <v>209.17307732721176</v>
+        <v>21.509144163313906</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4417,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>43.201932068352292</v>
+        <v>5.1461369862721318E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>68.105523233197971</v>
+        <v>87.797392013659518</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4445,50 +5743,55 @@
         <v>1</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>111.01802661647774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2026</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>209.17307732721176</v>
+      <c r="D35">
+        <v>608.23597583668607</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0.1429777521211999</v>
-      </c>
-      <c r="F36">
-        <v>0.1429777521211999</v>
-      </c>
-      <c r="G36">
-        <v>42.75647214658084</v>
-      </c>
-      <c r="H36">
-        <v>67.403279615860114</v>
-      </c>
-      <c r="I36">
-        <v>207.01627048543784</v>
+        <v>21.509144163313906</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2027</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>42.75647214658084</v>
+      <c r="E37">
+        <v>5.0439734242863334E-2</v>
+      </c>
+      <c r="F37">
+        <v>86.054396379243542</v>
+      </c>
+      <c r="G37">
+        <v>108.81404388651359</v>
+      </c>
+      <c r="H37">
+        <v>596.16098560903617</v>
+      </c>
+      <c r="I37">
+        <v>21.082134390963866</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,10 +5802,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>67.403279615860114</v>
+        <v>5.0439734242863334E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4513,66 +5816,69 @@
         <v>1</v>
       </c>
       <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>86.054396379243542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2027</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>108.81404388651359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2027</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>207.01627048543784</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="7">
-        <v>0.14149579287285161</v>
-      </c>
-      <c r="F41" s="7">
-        <v>42.313302853566221</v>
-      </c>
-      <c r="G41" s="7">
-        <v>66.704647051605946</v>
-      </c>
-      <c r="H41" s="7">
-        <v>204.87055430195494</v>
+      <c r="D41">
+        <v>596.16098560903617</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0.14149579287285161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2028</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>42.313302853566221</v>
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>21.082134390963866</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2028</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7">
-        <v>66.704647051605946</v>
+      <c r="E44">
+        <v>4.9634598426702911E-2</v>
+      </c>
+      <c r="F44">
+        <v>84.680767479269747</v>
+      </c>
+      <c r="G44">
+        <v>107.07711792230354</v>
+      </c>
+      <c r="H44">
+        <v>586.64486565090522</v>
+      </c>
+      <c r="I44">
+        <v>20.745614349094808</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,83 +5889,4878 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" s="7">
-        <v>204.87055430195494</v>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4.9634598426702911E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2028</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>84.680767479269747</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47">
-        <v>0.14031166733175726</v>
-      </c>
-      <c r="F47">
-        <v>41.959198596332293</v>
-      </c>
-      <c r="G47">
-        <v>66.146420727841914</v>
-      </c>
-      <c r="H47">
-        <v>203.156069008494</v>
+      <c r="A47">
+        <v>2028</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>107.07711792230354</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>2028</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>586.64486565090522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2028</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>20.745614349094808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>4.8867346970914126E-2</v>
+      </c>
+      <c r="F51">
+        <v>83.371772459964276</v>
+      </c>
+      <c r="G51">
+        <v>105.42192019306481</v>
+      </c>
+      <c r="H51">
+        <v>577.57651128784221</v>
+      </c>
+      <c r="I51">
+        <v>20.424928712157886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2029</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0.14031166733175726</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>4.8867346970914126E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2029</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>83.371772459964276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2029</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D49">
-        <v>41.959198596332293</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="D54">
+        <v>105.42192019306481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2029</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>66.146420727841914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>577.57651128784221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2029</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>203.156069008494</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>20.424928712157886</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="43" customWidth="1"/>
+    <col min="2" max="5" width="22.5546875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="43"/>
+    <col min="7" max="9" width="22.33203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="43"/>
+    <col min="11" max="11" width="21.6640625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="43"/>
+    <col min="13" max="13" width="17.109375" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="43"/>
+    <col min="15" max="15" width="20.109375" style="43" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="43" customWidth="1"/>
+    <col min="17" max="23" width="14.44140625" style="43"/>
+    <col min="24" max="24" width="18.109375" style="43" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="43"/>
+    <col min="26" max="26" width="20.6640625" style="43" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="53"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>1.0040060999999999E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>50.718290000000003</v>
+      </c>
+      <c r="K10" s="13">
+        <v>71.785600000000002</v>
+      </c>
+      <c r="L10" s="12">
+        <v>463.09546030000001</v>
+      </c>
+      <c r="M10" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="S10" s="13">
+        <v>7.7894483E-2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>37.958590000000001</v>
+      </c>
+      <c r="U10" s="13">
+        <v>65.109458450000005</v>
+      </c>
+      <c r="V10" s="13">
+        <v>227.36</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13">
+        <v>0.96414665300000002</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0.78698299999999999</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>349.41500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>0.127338542</v>
+      </c>
+      <c r="J11" s="13">
+        <v>48.160600000000002</v>
+      </c>
+      <c r="K11" s="13">
+        <v>57.572360000000003</v>
+      </c>
+      <c r="L11" s="12">
+        <v>417.35307669999997</v>
+      </c>
+      <c r="M11" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.27398002799999999</v>
+      </c>
+      <c r="T11" s="13">
+        <v>31.103429999999999</v>
+      </c>
+      <c r="U11" s="13">
+        <v>33.238417669999997</v>
+      </c>
+      <c r="V11" s="13">
+        <v>165.78</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="X11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13">
+        <v>0.60159297599999995</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>1.674663</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>360.12099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.126</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>4.5249419999999997E-3</v>
+      </c>
+      <c r="J12" s="13">
+        <v>59.13758</v>
+      </c>
+      <c r="K12" s="13">
+        <v>65.806880000000007</v>
+      </c>
+      <c r="L12" s="12">
+        <v>408.569817</v>
+      </c>
+      <c r="M12" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="S12" s="13">
+        <v>1.8143879999999999E-3</v>
+      </c>
+      <c r="T12" s="13">
+        <v>19.869029999999999</v>
+      </c>
+      <c r="U12" s="13">
+        <v>34.564860750000001</v>
+      </c>
+      <c r="V12" s="13">
+        <v>97.28</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13">
+        <v>0.239093678</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0.21001300000000001</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>226.46899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.253</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>3.1752285999999998E-2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>54.172049999999999</v>
+      </c>
+      <c r="K13" s="13">
+        <v>68.605710000000002</v>
+      </c>
+      <c r="L13" s="12">
+        <v>281.53476389999997</v>
+      </c>
+      <c r="M13" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1.3849122E-2</v>
+      </c>
+      <c r="T13" s="13">
+        <v>18.59817</v>
+      </c>
+      <c r="U13" s="13">
+        <v>27.375208489999999</v>
+      </c>
+      <c r="V13" s="13">
+        <v>92.19</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13">
+        <v>2.4595730000000001E-3</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0.18143699999999999</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>253.68299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:K14" si="0">123*I13/SUM($I$13:$K$13)</f>
+        <v>3.1801536422559513E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>54.256075331386079</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>68.712123132191351</v>
+      </c>
+      <c r="L14" s="12">
+        <v>378.5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="S14" s="7">
+        <f>AVERAGE(S10:S13)</f>
+        <v>9.1884505249999998E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" ref="T14:T15" si="1">100-64</f>
+        <v>36</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" ref="U14:U15" si="2">100-36</f>
+        <v>64</v>
+      </c>
+      <c r="V14" s="12">
+        <v>165.1</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7">
+        <f t="shared" ref="AB14:AC14" si="3">AVERAGE(AB10:AB13)</f>
+        <v>0.45182321999999997</v>
+      </c>
+      <c r="AC14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.71327399999999996</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>226.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.151</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="56">
+        <f>B22</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <f t="shared" ref="I15:J15" si="4">122.3*I13/(SUM($I$13:$K$13))</f>
+        <v>3.1620552068935194E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="4"/>
+        <v>53.947300918931035</v>
+      </c>
+      <c r="K15" s="7">
+        <f>122.3*K13/(SUM($I$14:$K$14))</f>
+        <v>68.215271000000001</v>
+      </c>
+      <c r="L15" s="12">
+        <v>375.4</v>
+      </c>
+      <c r="M15" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="40">
+        <f>C22</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="S15" s="7">
+        <f>S14</f>
+        <v>9.1884505249999998E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="V15" s="12">
+        <v>165.1</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="Z15" s="32">
+        <f>C22</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7">
+        <f t="shared" ref="AB15:AC15" si="5">AB14</f>
+        <v>0.45182321999999997</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.71327399999999996</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>226.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.159</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="56">
+        <f t="shared" ref="G16:G24" si="6">B23</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H16" s="12">
+        <v>984.78499999999997</v>
+      </c>
+      <c r="I16" s="12">
+        <f>$H16 * I$29</f>
+        <v>6.1160573489473978E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" ref="J16:M25" si="7">$H16 * J$29</f>
+        <v>104.34504290810619</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="7"/>
+        <v>131.9421965184043</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="7"/>
+        <v>722.87351071952969</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="7"/>
+        <v>25.563089280470336</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="40">
+        <f t="shared" ref="P16:P24" si="8">C23</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>458.447</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" ref="S16:V25" si="9">S$28*$Q16</f>
+        <v>0.20656727623214408</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="9"/>
+        <v>61.772463628662472</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="9"/>
+        <v>97.380967827492896</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="9"/>
+        <v>299.08700126761244</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="Z16" s="32">
+        <f t="shared" ref="Z16:Z24" si="10">C23</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AA16" s="32">
+        <v>445.00700000000001</v>
+      </c>
+      <c r="AB16" s="7">
+        <f>$AA16 * AB$28</f>
+        <v>0.59870874212021863</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" ref="AC16:AD17" si="11">$AA16 * AC$28</f>
+        <v>1.1971006711137888</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="11"/>
+        <v>443.21119058676601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.307</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="56">
+        <f t="shared" si="6"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H17" s="12">
+        <v>939.61300000000006</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:I25" si="12">$H17 * I$29</f>
+        <v>5.8355143445691315E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="7"/>
+        <v>99.558745108845486</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="7"/>
+        <v>125.89001974770883</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="7"/>
+        <v>689.71536734181518</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="7"/>
+        <v>24.390512658184861</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="40">
+        <f t="shared" si="8"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>438.13200000000001</v>
+      </c>
+      <c r="R17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1974137334744076</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="9"/>
+        <v>59.03516226423806</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="9"/>
+        <v>93.065759392460009</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="9"/>
+        <v>285.83366460982751</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Z17" s="32">
+        <f t="shared" si="10"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>434.541</v>
+      </c>
+      <c r="AB17" s="7">
+        <f>$AA17 * AB$28</f>
+        <v>0.58462787216754319</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="11"/>
+        <v>1.1689463822511934</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="11"/>
+        <v>432.78742574558129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="56">
+        <f t="shared" si="6"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H18" s="12">
+        <v>902.96100000000001</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="12"/>
+        <v>5.6078852336935388E-2</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="7"/>
+        <v>95.675202495312661</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="7"/>
+        <v>120.97935865235038</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="7"/>
+        <v>662.81126145586836</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="7"/>
+        <v>23.439098544131742</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="8"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>420.834</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="9"/>
+        <v>0.18961959207035517</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="9"/>
+        <v>56.704380132718811</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="9"/>
+        <v>89.391406672341944</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="9"/>
+        <v>274.54859360286883</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="Z18" s="32">
+        <f t="shared" si="10"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>425.72300000000001</v>
+      </c>
+      <c r="AB18" s="7">
+        <f>AB$28 *$AA18</f>
+        <v>0.57276420780267689</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" ref="AC18:AD25" si="13">AC$28 *$AA18</f>
+        <v>1.145225331306194</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="13"/>
+        <v>424.00501046089119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.182</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="56">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="H19" s="12">
+        <v>872.17600000000004</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="12"/>
+        <v>5.4166934248344019E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="7"/>
+        <v>92.413310665191318</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="7"/>
+        <v>116.85476240056033</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="7"/>
+        <v>640.21377974412337</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="7"/>
+        <v>22.639980255876662</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>405.86700000000002</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="9"/>
+        <v>0.18287575380035559</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="9"/>
+        <v>54.687683626622821</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="9"/>
+        <v>86.212193054466624</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="9"/>
+        <v>264.78424756511021</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="Z19" s="32">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA19" s="32">
+        <v>417.92599999999999</v>
+      </c>
+      <c r="AB19" s="7">
+        <f>AB$28 *$AA19</f>
+        <v>0.56227418840452947</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="13"/>
+        <v>1.1242508434157243</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="13"/>
+        <v>416.23947496817976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="56">
+        <f t="shared" si="6"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H20" s="12">
+        <v>847.47199999999998</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="12"/>
+        <v>5.2632679758801662E-2</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="7"/>
+        <v>89.79574445530605</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="7"/>
+        <v>113.54490286493512</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="7"/>
+        <v>622.08000718583378</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="7"/>
+        <v>21.998712814166296</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="40">
+        <f t="shared" si="8"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>393.76600000000002</v>
+      </c>
+      <c r="R20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="9"/>
+        <v>0.17742327922928156</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="9"/>
+        <v>53.057160180356526</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="9"/>
+        <v>83.64176050352728</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="9"/>
+        <v>256.88965603688689</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="Z20" s="32">
+        <f t="shared" si="10"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AA20" s="32">
+        <v>411.89800000000002</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" ref="AB20:AB25" si="14">AB$28 *$AA20</f>
+        <v>0.55416416699475246</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.1080350921006352</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="13"/>
+        <v>410.23580074090466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="G21" s="56">
+        <f t="shared" si="6"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H21" s="12">
+        <v>828.61199999999997</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="12"/>
+        <v>5.1461369862721318E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="7"/>
+        <v>87.797392013659518</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="7"/>
+        <v>111.01802661647774</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="7"/>
+        <v>608.23597583668607</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="7"/>
+        <v>21.509144163313906</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>383.613</v>
+      </c>
+      <c r="R21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="9"/>
+        <v>0.17284853546264123</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="9"/>
+        <v>51.689115841050537</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="9"/>
+        <v>81.485112153003584</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="9"/>
+        <v>250.26592347048322</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="Z21" s="32">
+        <f t="shared" si="10"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AA21" s="32">
+        <v>406.90899999999999</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.54745200760301749</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0946143251280107</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="13"/>
+        <v>405.26693366726897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="34">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="G22" s="56">
+        <f t="shared" si="6"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H22" s="12">
+        <v>812.16200000000003</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="12"/>
+        <v>5.0439734242863334E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="7"/>
+        <v>86.054396379243542</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="7"/>
+        <v>108.81404388651359</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="7"/>
+        <v>596.16098560903617</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="7"/>
+        <v>21.082134390963866</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>375.03199999999998</v>
+      </c>
+      <c r="R22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="9"/>
+        <v>0.16898210423428106</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="9"/>
+        <v>50.532887290318278</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="9"/>
+        <v>79.662380005279374</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="9"/>
+        <v>244.66775060016803</v>
+      </c>
+      <c r="W22" s="19"/>
+      <c r="X22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="Z22" s="32">
+        <f t="shared" si="10"/>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>402.72</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.54181616160342294</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0833456153969376</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="13"/>
+        <v>401.09483822299967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="36">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="56">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="H23" s="12">
+        <v>799.19799999999998</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="12"/>
+        <v>4.9634598426702911E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="7"/>
+        <v>84.680767479269747</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="7"/>
+        <v>107.07711792230354</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="7"/>
+        <v>586.64486565090522</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="7"/>
+        <v>20.745614349094808</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>367.291</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="9"/>
+        <v>0.16549416062179581</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="9"/>
+        <v>49.489842748747549</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="9"/>
+        <v>78.018076362867887</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="9"/>
+        <v>239.61758672776273</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="Z23" s="32">
+        <f t="shared" si="10"/>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AA23" s="32">
+        <v>398.65100000000001</v>
+      </c>
+      <c r="AB23" s="7">
+        <f t="shared" si="14"/>
+        <v>0.53634176261264943</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0723997142520971</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="13"/>
+        <v>397.04225852313527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="36">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="G24" s="56">
+        <f t="shared" si="6"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H24" s="12">
+        <v>786.84400000000005</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="12"/>
+        <v>4.8867346970914126E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="7"/>
+        <v>83.371772459964276</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="7"/>
+        <v>105.42192019306481</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="7"/>
+        <v>577.57651128784221</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="7"/>
+        <v>20.424928712157886</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="40">
+        <f t="shared" si="8"/>
+        <v>0.879</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>360.99400000000003</v>
+      </c>
+      <c r="R24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="9"/>
+        <v>0.16265685524421933</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="9"/>
+        <v>48.641366908640215</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="9"/>
+        <v>76.680499817684421</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="9"/>
+        <v>235.50947641843115</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="Z24" s="32">
+        <f t="shared" si="10"/>
+        <v>0.879</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>395.44799999999998</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="14"/>
+        <v>0.53203247286886768</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="13"/>
+        <v>1.063783415071236</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="13"/>
+        <v>393.85218411205989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="36">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="12">
+        <v>776.68200000000002</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="12"/>
+        <v>4.8236230790427992E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="7"/>
+        <v>82.295035582339025</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="7"/>
+        <v>104.06040818687053</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="7"/>
+        <v>570.11717689918692</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="7"/>
+        <v>20.161143100813135</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="10">
+        <v>355.49599999999998</v>
+      </c>
+      <c r="R25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="9"/>
+        <v>0.16017956368221906</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="9"/>
+        <v>47.900550620104376</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="9"/>
+        <v>75.512642767435295</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="9"/>
+        <v>231.92262704877805</v>
+      </c>
+      <c r="W25" s="19"/>
+      <c r="X25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18">
+        <v>392.51100000000002</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="14"/>
+        <v>0.52808105732797261</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0558826749231907</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="13"/>
+        <v>390.92703626774886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="36">
+        <v>0.81</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2026</v>
+      </c>
+      <c r="B27" s="36">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>2027</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C28" s="38">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <f t="shared" ref="I28:K28" si="15">I15/(SUM($I$15:$K$15))</f>
+        <v>2.5877295335815256E-4</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="15"/>
+        <v>0.44148825593110086</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="15"/>
+        <v>0.55825297111554095</v>
+      </c>
+      <c r="L28">
+        <v>0.96584468306270665</v>
+      </c>
+      <c r="M28">
+        <v>3.415531693729347E-2</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="43">
+        <v>4.5058049508916857E-4</v>
+      </c>
+      <c r="T28" s="43">
+        <v>0.13474286804944186</v>
+      </c>
+      <c r="U28" s="43">
+        <v>0.2124148872770307</v>
+      </c>
+      <c r="V28" s="43">
+        <v>0.65239166417843819</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="43">
+        <v>1.3453917401753648E-3</v>
+      </c>
+      <c r="AC28" s="43">
+        <v>2.6900715519391576E-3</v>
+      </c>
+      <c r="AD28" s="43">
+        <v>0.99596453670788554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>2028</v>
+      </c>
+      <c r="B29" s="38">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C29" s="38">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I29" s="43">
+        <f>0.24 * I28</f>
+        <v>6.2105508805956612E-5</v>
+      </c>
+      <c r="J29" s="43">
+        <f>0.24 * J28</f>
+        <v>0.10595718142346421</v>
+      </c>
+      <c r="K29" s="43">
+        <f>0.24 * K28</f>
+        <v>0.13398071306772982</v>
+      </c>
+      <c r="L29" s="43">
+        <f>L28*0.76</f>
+        <v>0.73404195912765702</v>
+      </c>
+      <c r="M29" s="43">
+        <f>M28*0.76</f>
+        <v>2.5958040872343036E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>2029</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0.879</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F32" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F34" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F30:M30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD36"/>
+  <sheetViews>
+    <sheetView topLeftCell="W3" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="43" customWidth="1"/>
+    <col min="2" max="5" width="22.5546875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="43"/>
+    <col min="7" max="9" width="22.33203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="43"/>
+    <col min="11" max="11" width="21.6640625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="43"/>
+    <col min="13" max="13" width="17.109375" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="43"/>
+    <col min="15" max="15" width="20.109375" style="43" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="43" customWidth="1"/>
+    <col min="17" max="23" width="14.44140625" style="43"/>
+    <col min="24" max="24" width="18.109375" style="43" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="43"/>
+    <col min="26" max="26" width="20.6640625" style="43" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="53"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>1.0040060999999999E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>50.718290000000003</v>
+      </c>
+      <c r="K10" s="13">
+        <v>71.785600000000002</v>
+      </c>
+      <c r="L10" s="12">
+        <v>463.09546030000001</v>
+      </c>
+      <c r="M10" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="S10" s="13">
+        <v>7.7894483E-2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>37.958590000000001</v>
+      </c>
+      <c r="U10" s="13">
+        <v>65.109458450000005</v>
+      </c>
+      <c r="V10" s="13">
+        <v>227.36</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13">
+        <v>0.96414665300000002</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0.78698299999999999</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>349.41500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>0.127338542</v>
+      </c>
+      <c r="J11" s="13">
+        <v>48.160600000000002</v>
+      </c>
+      <c r="K11" s="13">
+        <v>57.572360000000003</v>
+      </c>
+      <c r="L11" s="12">
+        <v>417.35307669999997</v>
+      </c>
+      <c r="M11" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.27398002799999999</v>
+      </c>
+      <c r="T11" s="13">
+        <v>31.103429999999999</v>
+      </c>
+      <c r="U11" s="13">
+        <v>33.238417669999997</v>
+      </c>
+      <c r="V11" s="13">
+        <v>165.78</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="X11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13">
+        <v>0.60159297599999995</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>1.674663</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>360.12099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.126</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>4.5249419999999997E-3</v>
+      </c>
+      <c r="J12" s="13">
+        <v>59.13758</v>
+      </c>
+      <c r="K12" s="13">
+        <v>65.806880000000007</v>
+      </c>
+      <c r="L12" s="12">
+        <v>408.569817</v>
+      </c>
+      <c r="M12" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="S12" s="13">
+        <v>1.8143879999999999E-3</v>
+      </c>
+      <c r="T12" s="13">
+        <v>19.869029999999999</v>
+      </c>
+      <c r="U12" s="13">
+        <v>34.564860750000001</v>
+      </c>
+      <c r="V12" s="13">
+        <v>97.28</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13">
+        <v>0.239093678</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0.21001300000000001</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>226.46899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.253</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>3.1752285999999998E-2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>54.172049999999999</v>
+      </c>
+      <c r="K13" s="13">
+        <v>68.605710000000002</v>
+      </c>
+      <c r="L13" s="12">
+        <v>281.53476389999997</v>
+      </c>
+      <c r="M13" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1.3849122E-2</v>
+      </c>
+      <c r="T13" s="13">
+        <v>18.59817</v>
+      </c>
+      <c r="U13" s="13">
+        <v>27.375208489999999</v>
+      </c>
+      <c r="V13" s="13">
+        <v>92.19</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13">
+        <v>2.4595730000000001E-3</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0.18143699999999999</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>253.68299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:K14" si="0">123*I13/SUM($I$13:$K$13)</f>
+        <v>3.1801536422559513E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>54.256075331386079</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>68.712123132191351</v>
+      </c>
+      <c r="L14" s="12">
+        <v>378.5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="S14" s="7">
+        <f>AVERAGE(S10:S13)</f>
+        <v>9.1884505249999998E-2</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" ref="T14:T15" si="1">100-64</f>
+        <v>36</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" ref="U14:U15" si="2">100-36</f>
+        <v>64</v>
+      </c>
+      <c r="V14" s="12">
+        <v>165.1</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>2019</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7">
+        <f t="shared" ref="AB14:AC14" si="3">AVERAGE(AB10:AB13)</f>
+        <v>0.45182321999999997</v>
+      </c>
+      <c r="AC14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.71327399999999996</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>226.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.151</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="31">
+        <f>B22</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <f t="shared" ref="I15:J15" si="4">122.3*I13/(SUM($I$13:$K$13))</f>
+        <v>3.1620552068935194E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="4"/>
+        <v>53.947300918931035</v>
+      </c>
+      <c r="K15" s="7">
+        <f>122.3*K13/(SUM($I$14:$K$14))</f>
+        <v>68.215271000000001</v>
+      </c>
+      <c r="L15" s="12">
+        <v>375.4</v>
+      </c>
+      <c r="M15" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="40">
+        <f>C22</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="S15" s="7">
+        <f>S14</f>
+        <v>9.1884505249999998E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="V15" s="12">
+        <v>165.1</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>2020</v>
+      </c>
+      <c r="Z15" s="32">
+        <f>C22</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7">
+        <f t="shared" ref="AB15:AC15" si="5">AB14</f>
+        <v>0.45182321999999997</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.71327399999999996</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>226.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.159</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" ref="G16:G24" si="6">B23</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <f>$H16 * I$29</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" ref="J16:M25" si="7">$H16 * J$29</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="40">
+        <f t="shared" ref="P16:P24" si="8">C23</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>256.09399999999999</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" ref="S16:V25" si="9">S$28*$Q16</f>
+        <v>0.11539096130936553</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="9"/>
+        <v>34.506840050253764</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="9"/>
+        <v>54.3981781423239</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="9"/>
+        <v>167.07359084611295</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="Z16" s="32">
+        <f t="shared" ref="Z16:Z24" si="10">C23</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>188.274</v>
+      </c>
+      <c r="AB16" s="7">
+        <f>$AA16 * AB$28</f>
+        <v>0.25330228448977665</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" ref="AC16:AD17" si="11">$AA16 * AC$28</f>
+        <v>0.50647053136979292</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="11"/>
+        <v>187.51422718414045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.307</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:I25" si="12">$H17 * I$29</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="40">
+        <f t="shared" si="8"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>257.34399999999999</v>
+      </c>
+      <c r="R17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.115954186928227</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="9"/>
+        <v>34.675268635315561</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="9"/>
+        <v>54.66369675142019</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="9"/>
+        <v>167.88908042633599</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Z17" s="32">
+        <f t="shared" si="10"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>193.74</v>
+      </c>
+      <c r="AB17" s="7">
+        <f>$AA17 * AB$28</f>
+        <v>0.26065619574157517</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="11"/>
+        <v>0.52117446247269239</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="11"/>
+        <v>192.95816934178575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="6"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="8"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>258.79199999999997</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1166066274851161</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="9"/>
+        <v>34.870376308251153</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="9"/>
+        <v>54.971273508197321</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="9"/>
+        <v>168.83374355606637</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="Z18" s="32">
+        <f t="shared" si="10"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>198.82900000000001</v>
+      </c>
+      <c r="AB18" s="7">
+        <f>AB$28 *$AA18</f>
+        <v>0.2675028943073276</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" ref="AC18:AD25" si="13">AC$28 *$AA18</f>
+        <v>0.53486423660051075</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="13"/>
+        <v>198.02663286909217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.182</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>260.06099999999998</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11717841413338426</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="9"/>
+        <v>35.041365007805894</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="9"/>
+        <v>55.240828000151879</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="9"/>
+        <v>169.6616285779088</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="Z19" s="32">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>203.26900000000001</v>
+      </c>
+      <c r="AB19" s="7">
+        <f>AB$28 *$AA19</f>
+        <v>0.27347643363370622</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="13"/>
+        <v>0.54680815429112062</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="13"/>
+        <v>202.44871541207519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="40">
+        <f t="shared" si="8"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>261.64100000000002</v>
+      </c>
+      <c r="R20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11789033131562517</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="9"/>
+        <v>35.254258739324023</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="9"/>
+        <v>55.576443522049594</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="9"/>
+        <v>170.69240740731075</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>2025</v>
+      </c>
+      <c r="Z20" s="32">
+        <f t="shared" si="10"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>207.47399999999999</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" ref="AB20:AB25" si="14">AB$28 *$AA20</f>
+        <v>0.27913380590114362</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.55811990516702481</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="13"/>
+        <v>206.63674628893185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="6"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>263.15300000000002</v>
+      </c>
+      <c r="R21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11857160902419998</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="9"/>
+        <v>35.457989955814774</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="9"/>
+        <v>55.897614831612465</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="9"/>
+        <v>171.67882360354855</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>2026</v>
+      </c>
+      <c r="Z21" s="32">
+        <f t="shared" si="10"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>210.20599999999999</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.28280941613530275</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="13"/>
+        <v>0.56546918064692253</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="13"/>
+        <v>209.35772140321777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="34">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="6"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>264.53500000000003</v>
+      </c>
+      <c r="R22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11919431126841322</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="9"/>
+        <v>35.644204599459101</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="9"/>
+        <v>56.191172205829325</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="9"/>
+        <v>172.58042888344318</v>
+      </c>
+      <c r="W22" s="19"/>
+      <c r="X22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>2027</v>
+      </c>
+      <c r="Z22" s="32">
+        <f t="shared" si="10"/>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>212.16900000000001</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.28545042012126698</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5707497911033792</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="13"/>
+        <v>211.31279978877538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="36">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>265.45499999999998</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11960884532389524</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="9"/>
+        <v>35.768168038064587</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="9"/>
+        <v>56.386593902124183</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="9"/>
+        <v>173.18062921448731</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>2028</v>
+      </c>
+      <c r="Z23" s="32">
+        <f t="shared" si="10"/>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>213.642</v>
+      </c>
+      <c r="AB23" s="7">
+        <f t="shared" si="14"/>
+        <v>0.2874321821545453</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="13"/>
+        <v>0.57471226649938545</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="13"/>
+        <v>212.77985555134609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="36">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="6"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="40">
+        <f t="shared" si="8"/>
+        <v>0.879</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>266.50799999999998</v>
+      </c>
+      <c r="R24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12008330658522413</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="9"/>
+        <v>35.910052278120645</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="9"/>
+        <v>56.610266778426897</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="9"/>
+        <v>173.8675976368672</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>2029</v>
+      </c>
+      <c r="Z24" s="32">
+        <f t="shared" si="10"/>
+        <v>0.879</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>215.14599999999999</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="14"/>
+        <v>0.28945565133176904</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="13"/>
+        <v>0.57875813411350197</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="13"/>
+        <v>214.27778621455474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="36">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="10">
+        <v>267.38200000000001</v>
+      </c>
+      <c r="R25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12047711393793208</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="9"/>
+        <v>36.027817544795866</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="9"/>
+        <v>56.795917389907025</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="9"/>
+        <v>174.43778795135916</v>
+      </c>
+      <c r="W25" s="19"/>
+      <c r="X25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>2030</v>
+      </c>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="7">
+        <v>216.459</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="14"/>
+        <v>0.29122215068661927</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="13"/>
+        <v>0.58229019806119808</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="13"/>
+        <v>215.58548765125221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="36">
+        <v>0.81</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2026</v>
+      </c>
+      <c r="B27" s="36">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>2027</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C28" s="38">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <f t="shared" ref="I28:K28" si="15">I15/(SUM($I$15:$K$15))</f>
+        <v>2.5877295335815256E-4</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="15"/>
+        <v>0.44148825593110086</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="15"/>
+        <v>0.55825297111554095</v>
+      </c>
+      <c r="L28">
+        <v>0.96584468306270665</v>
+      </c>
+      <c r="M28">
+        <v>3.415531693729347E-2</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="43">
+        <v>4.5058049508916857E-4</v>
+      </c>
+      <c r="T28" s="43">
+        <v>0.13474286804944186</v>
+      </c>
+      <c r="U28" s="43">
+        <v>0.2124148872770307</v>
+      </c>
+      <c r="V28" s="43">
+        <v>0.65239166417843819</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="43">
+        <v>1.3453917401753648E-3</v>
+      </c>
+      <c r="AC28" s="43">
+        <v>2.6900715519391576E-3</v>
+      </c>
+      <c r="AD28" s="43">
+        <v>0.99596453670788554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>2028</v>
+      </c>
+      <c r="B29" s="38">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C29" s="38">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I29" s="43">
+        <f>0.24 * I28</f>
+        <v>6.2105508805956612E-5</v>
+      </c>
+      <c r="J29" s="43">
+        <f>0.24 * J28</f>
+        <v>0.10595718142346421</v>
+      </c>
+      <c r="K29" s="43">
+        <f>0.24 * K28</f>
+        <v>0.13398071306772982</v>
+      </c>
+      <c r="L29" s="43">
+        <f>L28*0.76</f>
+        <v>0.73404195912765702</v>
+      </c>
+      <c r="M29" s="43">
+        <f>M28*0.76</f>
+        <v>2.5958040872343036E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>2029</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0.879</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F32" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F34" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F30:M30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="86"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="86"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="86"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="88"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="90"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="90"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="90"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="86"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="90"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="90"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="86"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="90"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="86"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="90"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="88"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Black_RF_Catch-only.xlsx
+++ b/Black_RF_Catch-only.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="10212" tabRatio="765" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base_Runs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="68">
   <si>
     <t>BLACK ROCKFISH</t>
   </si>
@@ -170,9 +170,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Tag Q estimated</t>
-  </si>
-  <si>
     <t>Tag Q = 0.25</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
   </si>
   <si>
     <t>Stock status</t>
-  </si>
-  <si>
-    <t>2014 Catch</t>
-  </si>
-  <si>
-    <t>State harvest guideline: 440.8 rec/139.2 comm.</t>
   </si>
   <si>
     <t>High catch</t>
@@ -546,6 +537,18 @@
       </rPr>
       <t xml:space="preserve"> = 0.16</t>
     </r>
+  </si>
+  <si>
+    <t>Base Catch</t>
+  </si>
+  <si>
+    <t>Low Q Catch</t>
+  </si>
+  <si>
+    <t>High Q catch</t>
+  </si>
+  <si>
+    <t>Tag Q =0.44</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1253,22 +1256,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,6 +1283,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,10 +1361,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,39 +1379,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,8 +1672,8 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1692,14 +1697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1729,11 +1734,11 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="22"/>
       <c r="E7" s="4"/>
     </row>
@@ -1750,33 +1755,33 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
       <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="54" t="s">
+      <c r="Y8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="53"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3453,16 +3458,16 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
@@ -3484,79 +3489,79 @@
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
     </row>
     <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
     </row>
     <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
     </row>
     <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F33:M33"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F30:M30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="F36:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -3571,453 +3576,566 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I35"/>
+      <selection activeCell="B26" sqref="B26:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="B5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="C5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="E5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="52">
+        <v>256.09399999999999</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="52">
+        <v>257.34399999999999</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="52">
+        <v>258.79199999999997</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="52">
+        <v>260.06099999999998</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="52">
+        <v>261.64100000000002</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C11" s="52">
+        <v>263.15300000000002</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C12" s="52">
+        <v>264.53500000000003</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C13" s="52">
+        <v>265.45499999999998</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C14" s="52">
+        <v>266.50799999999998</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C15" s="51">
+        <v>267.38200000000001</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="52">
+        <v>347.62400000000002</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="52">
+        <v>340.51799999999997</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="52">
+        <v>334.39</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="52">
+        <v>328.81900000000002</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="52">
+        <v>324.41300000000001</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C21" s="52">
+        <v>320.625</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C22" s="52">
+        <v>317.31900000000002</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C23" s="52">
+        <v>314.02999999999997</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C24" s="52">
+        <v>311.40199999999999</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="71"/>
+      <c r="B25" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C25" s="51">
+        <v>309.00099999999998</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="52">
+        <v>458.447</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="90"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="52">
+        <v>438.13200000000001</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="90"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="52">
+        <v>420.834</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="90"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="52">
+        <v>405.86700000000002</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="90"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="52">
+        <v>393.76600000000002</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="90"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C31" s="52">
+        <v>383.613</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="90"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C32" s="52">
+        <v>375.03199999999998</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="90"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C33" s="52">
+        <v>367.291</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="90"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C34" s="52">
+        <v>360.99400000000003</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="91"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="51">
+        <v>355.49599999999998</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:E2"/>
@@ -4026,6 +4144,13 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4110,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A27:H71"/>
+  <dimension ref="A27:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D71"/>
+      <selection activeCell="A74" sqref="A74:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4746,6 +4871,76 @@
       </c>
       <c r="D71">
         <v>235.50947641843115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0.12047711393793208</v>
+      </c>
+      <c r="F73">
+        <v>36.027817544795866</v>
+      </c>
+      <c r="G73">
+        <v>56.795917389907025</v>
+      </c>
+      <c r="H73">
+        <v>174.43778795135916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2030</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.12047711393793208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2030</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>36.027817544795866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2030</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>56.795917389907025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2030</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>174.43778795135916</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D56"/>
     </sheetView>
   </sheetViews>
@@ -5257,19 +5452,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1">
-        <v>6.1160573489473978E-2</v>
+        <v>1.4080685167504095E-2</v>
       </c>
       <c r="F1">
-        <v>104.34504290810619</v>
+        <v>24.022824086690651</v>
       </c>
       <c r="G1">
-        <v>131.9421965184043</v>
+        <v>30.376375228141843</v>
       </c>
       <c r="H1">
-        <v>722.87351071952969</v>
+        <v>166.42346105734066</v>
       </c>
       <c r="I1">
-        <v>25.563089280470336</v>
+        <v>5.885258942659358</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5283,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6.1160573489473978E-2</v>
+        <v>1.4080685167504095E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5297,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>104.34504290810619</v>
+        <v>24.022824086690651</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5311,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>131.9421965184043</v>
+        <v>30.376375228141843</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5325,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>722.87351071952969</v>
+        <v>166.42346105734066</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,24 +5534,24 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>25.563089280470336</v>
+        <v>5.885258942659358</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
-        <v>5.8355143445691315E-2</v>
+        <v>1.5163681030062366E-2</v>
       </c>
       <c r="F7">
-        <v>99.558745108845486</v>
+        <v>25.870505416353019</v>
       </c>
       <c r="G7">
-        <v>125.89001974770883</v>
+        <v>32.712730902616912</v>
       </c>
       <c r="H7">
-        <v>689.71536734181518</v>
+        <v>179.22368474060875</v>
       </c>
       <c r="I7">
-        <v>24.390512658184861</v>
+        <v>6.3379152593912753</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5370,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5.8355143445691315E-2</v>
+        <v>1.5163681030062366E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>99.558745108845486</v>
+        <v>25.870505416353019</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5398,7 +5593,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>125.89001974770883</v>
+        <v>32.712730902616912</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5412,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>689.71536734181518</v>
+        <v>179.22368474060875</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5426,24 +5621,24 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>24.390512658184861</v>
+        <v>6.3379152593912753</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13">
-        <v>5.6078852336935388E-2</v>
+        <v>1.616513235955842E-2</v>
       </c>
       <c r="F13">
-        <v>95.675202495312661</v>
+        <v>27.579064966806385</v>
       </c>
       <c r="G13">
-        <v>120.97935865235038</v>
+        <v>34.873169900834057</v>
       </c>
       <c r="H13">
-        <v>662.81126145586836</v>
+        <v>191.06011133154223</v>
       </c>
       <c r="I13">
-        <v>23.439098544131742</v>
+        <v>6.7564886684578083</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5457,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>5.6078852336935388E-2</v>
+        <v>1.616513235955842E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5471,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>95.675202495312661</v>
+        <v>27.579064966806385</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5485,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>120.97935865235038</v>
+        <v>34.873169900834057</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5499,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>662.81126145586836</v>
+        <v>191.06011133154223</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5513,24 +5708,24 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>23.439098544131742</v>
+        <v>6.7564886684578083</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19">
-        <v>5.4166934248344019E-2</v>
+        <v>1.6974926088879287E-2</v>
       </c>
       <c r="F19">
-        <v>92.413310665191318</v>
+        <v>28.960640655386932</v>
       </c>
       <c r="G19">
-        <v>116.85476240056033</v>
+        <v>36.620144418524191</v>
       </c>
       <c r="H19">
-        <v>640.21377974412337</v>
+        <v>200.63128443660773</v>
       </c>
       <c r="I19">
-        <v>22.639980255876662</v>
+        <v>7.0949555633922881</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5544,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>5.4166934248344019E-2</v>
+        <v>1.6974926088879287E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5558,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>92.413310665191318</v>
+        <v>28.960640655386932</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>116.85476240056033</v>
+        <v>36.620144418524191</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>640.21377974412337</v>
+        <v>200.63128443660773</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5600,24 +5795,24 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>22.639980255876662</v>
+        <v>7.0949555633922881</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25">
-        <v>5.2632679758801662E-2</v>
+        <v>1.7582255859492735E-2</v>
       </c>
       <c r="F25">
-        <v>89.79574445530605</v>
+        <v>29.99679593252699</v>
       </c>
       <c r="G25">
-        <v>113.54490286493512</v>
+        <v>37.930341811613516</v>
       </c>
       <c r="H25">
-        <v>622.08000718583378</v>
+        <v>207.8094807549171</v>
       </c>
       <c r="I25">
-        <v>21.998712814166296</v>
+        <v>7.3487992450829305</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>5.2632679758801662E-2</v>
+        <v>1.7582255859492735E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,7 +5840,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>89.79574445530605</v>
+        <v>29.99679593252699</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5659,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>113.54490286493512</v>
+        <v>37.930341811613516</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5673,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>622.08000718583378</v>
+        <v>207.8094807549171</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5687,24 +5882,24 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>21.998712814166296</v>
+        <v>7.3487992450829305</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31">
-        <v>5.1461369862721318E-2</v>
+        <v>1.7883840210254461E-2</v>
       </c>
       <c r="F31">
-        <v>87.797392013659518</v>
+        <v>30.511324005519331</v>
       </c>
       <c r="G31">
-        <v>111.01802661647774</v>
+        <v>38.580952154270413</v>
       </c>
       <c r="H31">
-        <v>608.23597583668607</v>
+        <v>211.37398850844099</v>
       </c>
       <c r="I31">
-        <v>21.509144163313906</v>
+        <v>7.4748514915590283</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>5.1461369862721318E-2</v>
+        <v>1.7883840210254461E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5732,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>87.797392013659518</v>
+        <v>30.511324005519331</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5746,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>111.01802661647774</v>
+        <v>38.580952154270413</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5760,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>608.23597583668607</v>
+        <v>211.37398850844099</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5774,24 +5969,24 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>21.509144163313906</v>
+        <v>7.4748514915590283</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37">
-        <v>5.0439734242863334E-2</v>
+        <v>1.7946007824569222E-2</v>
       </c>
       <c r="F37">
-        <v>86.054396379243542</v>
+        <v>30.617387144124216</v>
       </c>
       <c r="G37">
-        <v>108.81404388651359</v>
+        <v>38.715066848051208</v>
       </c>
       <c r="H37">
-        <v>596.16098560903617</v>
+        <v>212.10876450952776</v>
       </c>
       <c r="I37">
-        <v>21.082134390963866</v>
+        <v>7.5008354904722436</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5805,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>5.0439734242863334E-2</v>
+        <v>1.7946007824569222E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5819,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>86.054396379243542</v>
+        <v>30.617387144124216</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5833,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>108.81404388651359</v>
+        <v>38.715066848051208</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5847,7 +6042,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>596.16098560903617</v>
+        <v>212.10876450952776</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5861,24 +6056,24 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>21.082134390963866</v>
+        <v>7.5008354904722436</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44">
-        <v>4.9634598426702911E-2</v>
+        <v>1.7986190088766677E-2</v>
       </c>
       <c r="F44">
-        <v>84.680767479269747</v>
+        <v>30.6859414405052</v>
       </c>
       <c r="G44">
-        <v>107.07711792230354</v>
+        <v>38.801752369406032</v>
       </c>
       <c r="H44">
-        <v>586.64486565090522</v>
+        <v>212.5836896570834</v>
       </c>
       <c r="I44">
-        <v>20.745614349094808</v>
+        <v>7.5176303429166502</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5892,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>4.9634598426702911E-2</v>
+        <v>1.7986190088766677E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5906,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>84.680767479269747</v>
+        <v>30.6859414405052</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5920,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>107.07711792230354</v>
+        <v>38.801752369406032</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5934,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>586.64486565090522</v>
+        <v>212.5836896570834</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5948,24 +6143,24 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>20.745614349094808</v>
+        <v>7.5176303429166502</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E51">
-        <v>4.8867346970914126E-2</v>
+        <v>1.7985072189608171E-2</v>
       </c>
       <c r="F51">
-        <v>83.371772459964276</v>
+        <v>30.684034211239577</v>
       </c>
       <c r="G51">
-        <v>105.42192019306481</v>
+        <v>38.799340716570811</v>
       </c>
       <c r="H51">
-        <v>577.57651128784221</v>
+        <v>212.57047690181906</v>
       </c>
       <c r="I51">
-        <v>20.424928712157886</v>
+        <v>7.5171630981809479</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5979,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>4.8867346970914126E-2</v>
+        <v>1.7985072189608171E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5993,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>83.371772459964276</v>
+        <v>30.684034211239577</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>105.42192019306481</v>
+        <v>38.799340716570811</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6021,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>577.57651128784221</v>
+        <v>212.57047690181906</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -6035,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>20.424928712157886</v>
+        <v>7.5171630981809479</v>
       </c>
     </row>
   </sheetData>
@@ -6049,10 +6244,10 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6076,14 +6271,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6113,11 +6308,11 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="44"/>
       <c r="E7" s="4"/>
     </row>
@@ -6134,33 +6329,33 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
       <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="54" t="s">
+      <c r="Y8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="53"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -6637,7 +6832,7 @@
       <c r="F15" s="10">
         <v>2020</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="47">
         <f>B22</f>
         <v>0.84099999999999997</v>
       </c>
@@ -6727,7 +6922,7 @@
       <c r="F16" s="10">
         <v>2021</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="47">
         <f t="shared" ref="G16:G24" si="6">B23</f>
         <v>0.83299999999999996</v>
       </c>
@@ -6827,7 +7022,7 @@
       <c r="F17" s="10">
         <v>2022</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="47">
         <f t="shared" si="6"/>
         <v>0.82599999999999996</v>
       </c>
@@ -6928,7 +7123,7 @@
       <c r="F18" s="10">
         <v>2023</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="47">
         <f t="shared" si="6"/>
         <v>0.81799999999999995</v>
       </c>
@@ -7028,7 +7223,7 @@
       <c r="F19" s="10">
         <v>2024</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="47">
         <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
@@ -7122,7 +7317,7 @@
       <c r="F20" s="10">
         <v>2025</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="47">
         <f t="shared" si="6"/>
         <v>0.80300000000000005</v>
       </c>
@@ -7218,7 +7413,7 @@
       <c r="F21" s="10">
         <v>2026</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="47">
         <f t="shared" si="6"/>
         <v>0.79500000000000004</v>
       </c>
@@ -7318,7 +7513,7 @@
       <c r="F22" s="10">
         <v>2027</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="47">
         <f t="shared" si="6"/>
         <v>0.78800000000000003</v>
       </c>
@@ -7417,7 +7612,7 @@
       <c r="F23" s="10">
         <v>2028</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="47">
         <f t="shared" si="6"/>
         <v>0.78</v>
       </c>
@@ -7516,7 +7711,7 @@
       <c r="F24" s="10">
         <v>2029</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="47">
         <f t="shared" si="6"/>
         <v>0.77300000000000002</v>
       </c>
@@ -7837,16 +8032,16 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
@@ -7868,78 +8063,101 @@
       <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="55" t="s">
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="6:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="55" t="s">
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="6:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="55" t="s">
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+    </row>
+    <row r="35" spans="6:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="55" t="s">
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="R35" s="93"/>
+    </row>
+    <row r="36" spans="6:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="R36" s="46"/>
+    </row>
+    <row r="37" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="46"/>
+    </row>
+    <row r="38" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="46"/>
+    </row>
+    <row r="39" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="93"/>
+    </row>
+    <row r="40" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="46"/>
+    </row>
+    <row r="41" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="46"/>
+    </row>
+    <row r="42" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="46"/>
+    </row>
+    <row r="43" spans="6:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="F36:M36"/>
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F33:M33"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F30:M30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -7957,8 +8175,8 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="W3" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7982,14 +8200,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8019,11 +8237,11 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="44"/>
       <c r="E7" s="4"/>
     </row>
@@ -8040,33 +8258,33 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
       <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="54" t="s">
+      <c r="Y8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="53"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -8543,7 +8761,7 @@
       <c r="F15" s="10">
         <v>2020</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="47">
         <f>B22</f>
         <v>0.84099999999999997</v>
       </c>
@@ -8633,7 +8851,7 @@
       <c r="F16" s="10">
         <v>2021</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="47">
         <f t="shared" ref="G16:G24" si="6">B23</f>
         <v>0.83299999999999996</v>
       </c>
@@ -8731,7 +8949,7 @@
       <c r="F17" s="10">
         <v>2022</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="47">
         <f t="shared" si="6"/>
         <v>0.82599999999999996</v>
       </c>
@@ -8830,7 +9048,7 @@
       <c r="F18" s="10">
         <v>2023</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="47">
         <f t="shared" si="6"/>
         <v>0.81799999999999995</v>
       </c>
@@ -8928,7 +9146,7 @@
       <c r="F19" s="10">
         <v>2024</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="47">
         <f t="shared" si="6"/>
         <v>0.81</v>
       </c>
@@ -9020,7 +9238,7 @@
       <c r="F20" s="10">
         <v>2025</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="47">
         <f t="shared" si="6"/>
         <v>0.80300000000000005</v>
       </c>
@@ -9114,7 +9332,7 @@
       <c r="F21" s="10">
         <v>2026</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="47">
         <f t="shared" si="6"/>
         <v>0.79500000000000004</v>
       </c>
@@ -9212,7 +9430,7 @@
       <c r="F22" s="10">
         <v>2027</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="47">
         <f t="shared" si="6"/>
         <v>0.78800000000000003</v>
       </c>
@@ -9309,7 +9527,7 @@
       <c r="F23" s="10">
         <v>2028</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="47">
         <f t="shared" si="6"/>
         <v>0.78</v>
       </c>
@@ -9406,7 +9624,7 @@
       <c r="F24" s="10">
         <v>2029</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="47">
         <f t="shared" si="6"/>
         <v>0.77300000000000002</v>
       </c>
@@ -9723,16 +9941,16 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
@@ -9754,78 +9972,78 @@
       <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
     </row>
     <row r="33" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
     </row>
     <row r="35" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
     </row>
     <row r="36" spans="6:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="F36:M36"/>
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F33:M33"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F30:M30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="F36:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -9839,454 +10057,567 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="77"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="78" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="78" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="68"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="79" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="79" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="79" t="s">
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="B5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="C5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="E5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="60" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="52">
+        <v>226.72200000000001</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="52">
+        <v>244.16</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="52">
+        <v>260.28500000000003</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="52">
+        <v>273.32400000000001</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="52">
+        <v>283.10300000000001</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C11" s="52">
+        <v>287.959</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C12" s="52">
+        <v>288.95999999999998</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C13" s="52">
+        <v>289.60700000000003</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C14" s="52">
+        <v>289.589</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C15" s="51">
+        <v>289.88900000000001</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="A16" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="52">
+        <v>479.01100000000002</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="52">
+        <v>474.04599999999999</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="52">
+        <v>470</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="52">
+        <v>465.57100000000003</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="52">
+        <v>461.29899999999998</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C21" s="52">
+        <v>457.71</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C22" s="52">
+        <v>453.61500000000001</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C23" s="52">
+        <v>450.19900000000001</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C24" s="52">
+        <v>446.28199999999998</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C25" s="51">
+        <v>443.048</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="52">
+        <v>984.78499999999997</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="52">
+        <v>939.61300000000006</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="52">
+        <v>902.96100000000001</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="52">
+        <v>872.17600000000004</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="52">
+        <v>847.47199999999998</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C31" s="52">
+        <v>828.61199999999997</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C32" s="52">
+        <v>812.16200000000003</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C33" s="52">
+        <v>799.19799999999998</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C34" s="52">
+        <v>786.84400000000005</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="51">
+        <v>776.68200000000002</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:E2"/>
@@ -10295,6 +10626,13 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10305,453 +10643,566 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I35"/>
+      <selection activeCell="B26" sqref="B26:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="79" t="s">
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="79" t="s">
+      <c r="B6" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="52">
+        <v>188.274</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="52">
+        <v>193.74</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="52">
+        <v>198.82900000000001</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="52">
+        <v>203.26900000000001</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="52">
+        <v>207.47399999999999</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C11" s="52">
+        <v>210.20599999999999</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C12" s="52">
+        <v>212.16900000000001</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C13" s="52">
+        <v>213.642</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C14" s="52">
+        <v>215.14599999999999</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C15" s="51">
+        <v>216.459</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="60" t="s">
+      <c r="B16" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="52">
+        <v>292.56700000000001</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="52">
+        <v>291.11500000000001</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="52">
+        <v>289.91399999999999</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="52">
+        <v>288.60899999999998</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="52">
+        <v>287.815</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C21" s="52">
+        <v>287.14499999999998</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C22" s="52">
+        <v>286.54700000000003</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C23" s="52">
+        <v>285.64999999999998</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C24" s="52">
+        <v>285.07900000000001</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="71"/>
+      <c r="B25" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C25" s="51">
+        <v>284.47800000000001</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="48">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="52">
+        <v>445.00700000000001</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="90"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="52">
+        <v>434.541</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="90"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="48">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="52">
+        <v>425.72300000000001</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="90"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="48">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="52">
+        <v>417.92599999999999</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="90"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="48">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="52">
+        <v>411.89800000000002</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="90"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="48">
+        <v>2026</v>
+      </c>
+      <c r="C31" s="52">
+        <v>406.90899999999999</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="90"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="48">
+        <v>2027</v>
+      </c>
+      <c r="C32" s="52">
+        <v>402.72</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="90"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="48">
+        <v>2028</v>
+      </c>
+      <c r="C33" s="52">
+        <v>398.65100000000001</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="90"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="48">
+        <v>2029</v>
+      </c>
+      <c r="C34" s="52">
+        <v>395.44799999999998</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="91"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="51">
+        <v>392.51100000000002</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:E2"/>
@@ -10760,6 +11211,13 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
